--- a/Resultater/excel-plot/630Ad7.1.xlsx
+++ b/Resultater/excel-plot/630Ad7.1.xlsx
@@ -839,7 +839,7 @@
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/Resultater/excel-plot/630Ad7.1.xlsx
+++ b/Resultater/excel-plot/630Ad7.1.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="28515" windowHeight="12600"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="28515" windowHeight="12600" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Ark1" sheetId="1" r:id="rId1"/>
-    <sheet name="Ark2" sheetId="2" r:id="rId2"/>
-    <sheet name="Ark3" sheetId="3" r:id="rId3"/>
+    <sheet name="630AgeoC" sheetId="1" r:id="rId1"/>
+    <sheet name="880AgeoC" sheetId="2" r:id="rId2"/>
+    <sheet name="geometryD" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="18">
   <si>
     <t>Pressure</t>
   </si>
@@ -65,6 +65,15 @@
   <si>
     <t>ok ikke så langt unna 80 %</t>
   </si>
+  <si>
+    <t>880 A</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
 </sst>
 </file>
 
@@ -108,9 +117,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -124,24 +135,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="nb-NO"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="nb-NO"/>
-              <a:t>Interruption successrate</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -150,31 +144,32 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>630 A</c:v>
+            <c:v>630 A Geometry c</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln>
+            <a:ln w="63500">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
           <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="20"/>
             <c:spPr>
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln>
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:srgbClr val="F79646"/>
                 </a:solidFill>
               </a:ln>
             </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Ark1'!$H$6:$H$10</c:f>
+              <c:f>'630AgeoC'!$H$6:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -198,7 +193,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ark1'!$J$6:$J$10</c:f>
+              <c:f>'630AgeoC'!$J$6:$J$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -222,11 +217,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="52308992"/>
-        <c:axId val="52319360"/>
+        <c:axId val="116806784"/>
+        <c:axId val="116809088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="52308992"/>
+        <c:axId val="116806784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -239,10 +234,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1800"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="nb-NO"/>
+                  <a:rPr lang="nb-NO" sz="1800"/>
                   <a:t>Upstream over-pressure [bar]</a:t>
                 </a:r>
               </a:p>
@@ -253,14 +248,24 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52319360"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800"/>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="116809088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52319360"/>
+        <c:axId val="116809088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -274,11 +279,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1800"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="nb-NO"/>
-                  <a:t>Successfil interruptions [%]</a:t>
+                  <a:rPr lang="nb-NO" sz="1800"/>
+                  <a:t>Successful interruptions [%]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -289,11 +294,23 @@
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="9525">
-            <a:noFill/>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="52308992"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800"/>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="116806784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -304,16 +321,681 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.84612788377985371"/>
-          <c:y val="0.42155066531129981"/>
-          <c:w val="9.2737065002454391E-2"/>
-          <c:h val="3.8163813599501058E-2"/>
+          <c:x val="0.72810767619564853"/>
+          <c:y val="0.30778953759129896"/>
+          <c:w val="0.24788963448534462"/>
+          <c:h val="0.1167520703071496"/>
         </c:manualLayout>
       </c:layout>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800"/>
+          </a:pPr>
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
   </c:chart>
+  <c:spPr>
+    <a:ln w="9525"/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="nb-NO"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>880 A Geometry c</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="127000">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="20"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="F79646"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'880AgeoC'!$G$6:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'880AgeoC'!$I$6:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="117043200"/>
+        <c:axId val="117045888"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="117043200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nb-NO" sz="1800"/>
+                  <a:t>Upstream over-pressure [bar]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800"/>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="117045888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="117045888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nb-NO" sz="1800"/>
+                  <a:t>Successful interruptions [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800"/>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="117043200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.72810767619564865"/>
+          <c:y val="0.30778953759129896"/>
+          <c:w val="0.24788963448534473"/>
+          <c:h val="0.11675207030714962"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800"/>
+          </a:pPr>
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln w="9525"/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="nb-NO"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>630 A Geometry c</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="63500">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="20"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="F79646"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>geometryD!$R$2:$R$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>630 A Geometry d</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="63500">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>geometryD!$O$2:$O$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>geometryD!$P$2:$P$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>880 A Geometry c</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="127000">
+              <a:solidFill>
+                <a:srgbClr val="F79646"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="20"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="F79646"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="F79646"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>geometryD!$S$2:$S$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>880 A Geometry d</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="127000">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>geometryD!$O$2:$O$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>geometryD!$Q$2:$Q$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="115943680"/>
+        <c:axId val="116864896"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="115943680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nb-NO" sz="1800"/>
+                  <a:t>Upstream over-pressure [bar]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800"/>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="116864896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="116864896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nb-NO" sz="1800"/>
+                  <a:t>Successful interruptions [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800"/>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="115943680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.78220891563947181"/>
+          <c:y val="0.25701379711175032"/>
+          <c:w val="0.16194466202195926"/>
+          <c:h val="0.3041940702405147"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800"/>
+          </a:pPr>
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln w="9525"/>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
@@ -326,16 +1008,86 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>136151</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>16809</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagram 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -361,191 +1113,53 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="d4 400_24"/>
-      <sheetName val="d3 400_24"/>
-      <sheetName val="d4 630_24"/>
-      <sheetName val="d3 630_24"/>
-      <sheetName val="Ark1"/>
+      <sheetName val="630Adata"/>
+      <sheetName val="graf"/>
+      <sheetName val="880Adata"/>
+      <sheetName val="geoB630A"/>
+      <sheetName val="geoB880A"/>
+      <sheetName val="comp"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="60">
-          <cell r="V60">
-            <v>0.3</v>
+        <row r="7">
+          <cell r="G7">
+            <v>0.15</v>
           </cell>
-          <cell r="AB60">
-            <v>0</v>
-          </cell>
-          <cell r="AD60">
+          <cell r="I7">
             <v>0</v>
           </cell>
         </row>
-        <row r="61">
-          <cell r="V61">
-            <v>0.4</v>
+        <row r="8">
+          <cell r="G8">
+            <v>0.2</v>
           </cell>
-          <cell r="AB61">
-            <v>0</v>
-          </cell>
-          <cell r="AD61">
-            <v>0</v>
+          <cell r="I8">
+            <v>60</v>
           </cell>
         </row>
-        <row r="62">
-          <cell r="V62">
-            <v>0.5</v>
+        <row r="9">
+          <cell r="G9">
+            <v>0.25</v>
           </cell>
-          <cell r="AB62">
-            <v>0</v>
-          </cell>
-          <cell r="AD62">
-            <v>66.666666666666657</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="V63">
-            <v>0.6</v>
-          </cell>
-          <cell r="AB63">
-            <v>60</v>
-          </cell>
-          <cell r="AD63">
-            <v>77.777777777777786</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="V64">
-            <v>0.7</v>
-          </cell>
-          <cell r="AB64">
-            <v>85.714285714285708</v>
-          </cell>
-          <cell r="AD64">
-            <v>90.909090909090907</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="V65">
-            <v>0.8</v>
-          </cell>
-          <cell r="AB65">
-            <v>100</v>
-          </cell>
-          <cell r="AD65">
+          <cell r="I9">
             <v>100</v>
           </cell>
         </row>
-        <row r="66">
-          <cell r="V66">
-            <v>1</v>
+        <row r="10">
+          <cell r="G10">
+            <v>0.3</v>
           </cell>
-          <cell r="AB66">
-            <v>100</v>
-          </cell>
-          <cell r="AD66">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="V67">
-            <v>1.2</v>
-          </cell>
-          <cell r="AB67">
-            <v>100</v>
-          </cell>
-          <cell r="AD67">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="V68">
-            <v>1.4</v>
-          </cell>
-          <cell r="AB68">
-            <v>100</v>
-          </cell>
-          <cell r="AD68">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="V69">
-            <v>1.6</v>
-          </cell>
-          <cell r="AB69">
-            <v>100</v>
-          </cell>
-          <cell r="AD69">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="V70">
-            <v>1.8</v>
-          </cell>
-          <cell r="AB70">
-            <v>100</v>
-          </cell>
-          <cell r="AD70">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="V71">
-            <v>2</v>
-          </cell>
-          <cell r="AB71">
-            <v>75</v>
-          </cell>
-          <cell r="AD71">
-            <v>80</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="AA77">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="AA78">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="AA79">
-            <v>66.666666666666657</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="AA80">
-            <v>80</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="AA81">
-            <v>80</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="AA82">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="AA86">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="AA88">
+          <cell r="I10">
             <v>100</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -838,8 +1452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -933,13 +1547,14 @@
       </c>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>0.4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>51</v>
       </c>
-      <c r="D6">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="H6">
@@ -949,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <f t="shared" ref="J6:J17" si="0">I6/K6*100</f>
+        <f t="shared" ref="J6:J10" si="0">I6/K6*100</f>
         <v>0</v>
       </c>
       <c r="K6">
@@ -1071,13 +1686,14 @@
       </c>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>0.35</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>45</v>
       </c>
-      <c r="D11">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="S11">
@@ -1223,16 +1839,16 @@
       </c>
     </row>
     <row r="21" spans="1:21">
-      <c r="A21">
+      <c r="A21" s="2">
         <v>0.3</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>50</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>108</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>0</v>
       </c>
       <c r="T21">
@@ -1308,16 +1924,16 @@
       </c>
     </row>
     <row r="26" spans="1:21">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>0.2</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>46</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>94</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>0</v>
       </c>
       <c r="T26">
@@ -1418,6 +2034,424 @@
       <c r="U31" t="s">
         <v>14</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6:I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>0.5</v>
+      </c>
+      <c r="B2">
+        <v>36</v>
+      </c>
+      <c r="C2">
+        <v>90</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>0.5</v>
+      </c>
+      <c r="B3">
+        <v>54</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>0.5</v>
+      </c>
+      <c r="B4">
+        <v>44</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>0.5</v>
+      </c>
+      <c r="B5">
+        <v>45</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>40</v>
+      </c>
+      <c r="C6" s="1">
+        <v>86</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.35</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ref="I6:I10" si="0">H6/J6*100</f>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>0.45</v>
+      </c>
+      <c r="B7" s="3">
+        <v>50</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.4</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>0.45</v>
+      </c>
+      <c r="B8" s="3">
+        <v>35</v>
+      </c>
+      <c r="C8">
+        <v>87</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.45</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>0.45</v>
+      </c>
+      <c r="B9" s="3">
+        <v>53</v>
+      </c>
+      <c r="C9">
+        <v>108</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0.5</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>0.45</v>
+      </c>
+      <c r="B10" s="3">
+        <v>40</v>
+      </c>
+      <c r="C10">
+        <v>95</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="B11" s="1">
+        <v>44</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>0.4</v>
+      </c>
+      <c r="B12">
+        <v>39</v>
+      </c>
+      <c r="C12">
+        <v>94</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>0.4</v>
+      </c>
+      <c r="B13">
+        <v>36</v>
+      </c>
+      <c r="C13">
+        <v>90</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <v>0.4</v>
+      </c>
+      <c r="B14">
+        <v>39</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>0.4</v>
+      </c>
+      <c r="B15">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>75</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="B16" s="1">
+        <v>42</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>0.35</v>
+      </c>
+      <c r="B17" s="3">
+        <v>35</v>
+      </c>
+      <c r="C17" s="3">
+        <v>87</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>0.35</v>
+      </c>
+      <c r="B18" s="3">
+        <v>53</v>
+      </c>
+      <c r="C18" s="3">
+        <v>107</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>0.35</v>
+      </c>
+      <c r="B19" s="3">
+        <v>37</v>
+      </c>
+      <c r="C19" s="3">
+        <v>90</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>0.35</v>
+      </c>
+      <c r="B20" s="3">
+        <v>41</v>
+      </c>
+      <c r="C20" s="3">
+        <v>96</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="B21" s="2">
+        <v>42</v>
+      </c>
+      <c r="C21" s="2">
+        <v>95</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1425,26 +2459,240 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B1:S12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="V18" sqref="V18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:19">
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="2:19">
+      <c r="O2">
+        <v>0.2</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19">
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3">
+        <v>0.25</v>
+      </c>
+      <c r="P3">
+        <v>40</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4">
+        <v>0.3</v>
+      </c>
+      <c r="P4">
+        <v>100</v>
+      </c>
+      <c r="R4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19">
+      <c r="B5">
+        <v>0.2</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D8" si="0">C5/E5*100</f>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>0.5</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:J11" si="1">I5/K5*100</f>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <v>0.35</v>
+      </c>
+      <c r="R5">
+        <v>80</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19">
+      <c r="B6">
+        <v>0.25</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>0.6</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>0.4</v>
+      </c>
+      <c r="R6">
+        <v>100</v>
+      </c>
+      <c r="S6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19">
+      <c r="B7">
+        <v>0.3</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>0.7</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>0.45</v>
+      </c>
+      <c r="S7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19">
+      <c r="O8">
+        <v>0.5</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19">
+      <c r="O9">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19">
+      <c r="O10">
+        <v>0.6</v>
+      </c>
+      <c r="Q10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19">
+      <c r="O11">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19">
+      <c r="O12">
+        <v>0.7</v>
+      </c>
+      <c r="Q12">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>